--- a/Content/LinkDungeon1.xlsx
+++ b/Content/LinkDungeon1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="27">
   <si>
     <t>Door1</t>
   </si>
@@ -41,6 +41,42 @@
   </si>
   <si>
     <t>Door4</t>
+  </si>
+  <si>
+    <t>b01b99e99i01</t>
+  </si>
+  <si>
+    <t>b02b99e99i01</t>
+  </si>
+  <si>
+    <t>b03b99e99i01</t>
+  </si>
+  <si>
+    <t>b04b99e99i01</t>
+  </si>
+  <si>
+    <t>b05b99e99i01</t>
+  </si>
+  <si>
+    <t>b06b99e99i01</t>
+  </si>
+  <si>
+    <t>b07b99e99i01</t>
+  </si>
+  <si>
+    <t>b08b99e99i01</t>
+  </si>
+  <si>
+    <t>b09b99e99i01</t>
+  </si>
+  <si>
+    <t>b10b99e99i01</t>
+  </si>
+  <si>
+    <t>b11b99e99i01</t>
+  </si>
+  <si>
+    <t>b12b99e99i01</t>
   </si>
   <si>
     <t>b1</t>
@@ -468,10 +504,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -482,7 +518,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -742,278 +778,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1047,278 +1083,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1352,278 +1388,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1657,278 +1693,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1962,278 +1998,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2267,278 +2303,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2572,278 +2608,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2877,278 +2913,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3182,278 +3218,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3487,278 +3523,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3792,278 +3828,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4097,278 +4133,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4402,278 +4438,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4707,278 +4743,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5012,278 +5048,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5317,278 +5353,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5622,278 +5658,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5927,278 +5963,278 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
